--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoHoiVienGiam.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoHoiVienGiam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48840B13-6448-4408-903B-4DE5AF43FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879E8F-487F-4EC5-801C-6899925CA7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9BB838B-3921-4AEE-8A42-3D73D1D37F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9BB838B-3921-4AEE-8A42-3D73D1D37F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>HỘI NÔNG DÂN VIỆT NAM</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Năm vào hội</t>
+  </si>
+  <si>
+    <t>Tên Hội</t>
+  </si>
+  <si>
+    <t>Đại Bàn Hội</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -209,12 +218,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +256,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -260,6 +294,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -576,145 +619,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2063790-F17E-4993-83EB-B307DAF9D54E}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
+  <mergeCells count="16">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoHoiVienGiam.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BaoCaoHoiVienGiam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879E8F-487F-4EC5-801C-6899925CA7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3A668-9175-4F6C-9778-BDD7D39065F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9BB838B-3921-4AEE-8A42-3D73D1D37F32}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>HỘI NÔNG DÂN VIỆT NAM</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Số CCCD</t>
+  </si>
+  <si>
+    <t>Ngày Giảm</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +265,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,24 +319,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,15 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,170 +643,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2063790-F17E-4993-83EB-B307DAF9D54E}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6"/>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
